--- a/clustering/two_step/second_step/results/descriptive_stat/raw/statistics_cluster_L.xlsx
+++ b/clustering/two_step/second_step/results/descriptive_stat/raw/statistics_cluster_L.xlsx
@@ -441,13 +441,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -455,13 +455,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>48.98506458838953</v>
+        <v>51.9431774426342</v>
       </c>
       <c r="C3">
-        <v>361.5961302803415</v>
+        <v>292.2408121003299</v>
       </c>
       <c r="D3">
-        <v>283.9559955934021</v>
+        <v>344.4449084580287</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -469,13 +469,13 @@
         <v>5</v>
       </c>
       <c r="B4">
+        <v>0.06320679370336781</v>
+      </c>
+      <c r="C4">
         <v>0.0300494782570374</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.156990347369277</v>
-      </c>
-      <c r="D4">
-        <v>0.1872035073826503</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -483,13 +483,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.5410194970831065</v>
+        <v>0.5945879864487831</v>
       </c>
       <c r="C5">
-        <v>73.69992083256717</v>
+        <v>30.20985606764493</v>
       </c>
       <c r="D5">
-        <v>32.41363537347469</v>
+        <v>59.55497108852119</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -497,13 +497,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>9.225475007588564</v>
+        <v>9.36828988523512</v>
       </c>
       <c r="C6">
-        <v>131.507990921072</v>
+        <v>82.70058537278197</v>
       </c>
       <c r="D6">
-        <v>79.55393510844502</v>
+        <v>131.4150407672377</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -511,13 +511,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>40.65901964878589</v>
+        <v>48.72985635429289</v>
       </c>
       <c r="C7">
-        <v>296.5951272553525</v>
+        <v>178.8346377588092</v>
       </c>
       <c r="D7">
-        <v>178.7415626205507</v>
+        <v>275.8029662361816</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -525,13 +525,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>66.25375723404873</v>
+        <v>67.50961214495678</v>
       </c>
       <c r="C8">
-        <v>547.8261835927643</v>
+        <v>362.7325486093775</v>
       </c>
       <c r="D8">
-        <v>327.1618210191832</v>
+        <v>527.988553418876</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -542,10 +542,10 @@
         <v>374.6013023443541</v>
       </c>
       <c r="C9">
+        <v>2744.831677643373</v>
+      </c>
+      <c r="D9">
         <v>1752.796977738848</v>
-      </c>
-      <c r="D9">
-        <v>2744.831677643373</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -553,13 +553,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>82.69834519744182</v>
+        <v>85.01219908482219</v>
       </c>
       <c r="C10">
-        <v>412.3170574556252</v>
+        <v>463.0492517371071</v>
       </c>
       <c r="D10">
-        <v>468.1519928398391</v>
+        <v>409.1237467102068</v>
       </c>
     </row>
   </sheetData>
@@ -591,13 +591,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -605,13 +605,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1.264036076013795</v>
+        <v>1.357668377940743</v>
       </c>
       <c r="C3">
-        <v>724.9903451397408</v>
+        <v>1109.301887613919</v>
       </c>
       <c r="D3">
-        <v>1198.850555711616</v>
+        <v>742.5899417192613</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>15.77834927288841</v>
+        <v>341.1970723049686</v>
       </c>
       <c r="D5">
-        <v>354.576535185389</v>
+        <v>15.82652774273166</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -650,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>349.5253799438477</v>
+        <v>488.3369826867545</v>
       </c>
       <c r="D6">
-        <v>493.8872590454524</v>
+        <v>324.8158187866211</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>661.768033249315</v>
+        <v>1255.217290023284</v>
       </c>
       <c r="D7">
-        <v>1699.216204749465</v>
+        <v>653.1273040771484</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -675,13 +675,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.8119600726808329</v>
+        <v>0.820041835197614</v>
       </c>
       <c r="C8">
-        <v>1364.076291054174</v>
+        <v>2238.546574068381</v>
       </c>
       <c r="D8">
-        <v>2274.846233914731</v>
+        <v>1415.628875732422</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -692,10 +692,10 @@
         <v>11.61852535346203</v>
       </c>
       <c r="C9">
+        <v>2514.304130780807</v>
+      </c>
+      <c r="D9">
         <v>3028.806248836365</v>
-      </c>
-      <c r="D9">
-        <v>2514.304130780807</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -703,13 +703,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>3.051602053777084</v>
+        <v>3.145885096386304</v>
       </c>
       <c r="C10">
-        <v>819.9454503241317</v>
+        <v>922.2659101342571</v>
       </c>
       <c r="D10">
-        <v>928.2995146189179</v>
+        <v>851.764167951446</v>
       </c>
     </row>
   </sheetData>
@@ -741,13 +741,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -755,13 +755,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2.723651762666373</v>
+        <v>2.673099155779238</v>
       </c>
       <c r="C3">
-        <v>3.94227491484748</v>
+        <v>3.87327909043857</v>
       </c>
       <c r="D3">
-        <v>3.907963585853577</v>
+        <v>3.968515739208315</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -772,10 +772,10 @@
         <v>2.111804723739624</v>
       </c>
       <c r="C4">
+        <v>2.772530794143677</v>
+      </c>
+      <c r="D4">
         <v>2.971386909484864</v>
-      </c>
-      <c r="D4">
-        <v>2.772530794143677</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -783,13 +783,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2.337726640701294</v>
+        <v>2.313839292526245</v>
       </c>
       <c r="C5">
-        <v>3.325328063964844</v>
+        <v>3.524746179580688</v>
       </c>
       <c r="D5">
-        <v>3.543654203414917</v>
+        <v>3.342072010040283</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -797,13 +797,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>2.50685133934021</v>
+        <v>2.487388515472412</v>
       </c>
       <c r="C6">
-        <v>3.571583223342896</v>
+        <v>3.631469488143921</v>
       </c>
       <c r="D6">
-        <v>3.680409860610962</v>
+        <v>3.610694169998169</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -811,13 +811,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>2.949581241607666</v>
+        <v>2.886315059661865</v>
       </c>
       <c r="C7">
-        <v>4.210455799102783</v>
+        <v>3.996387720108032</v>
       </c>
       <c r="D7">
-        <v>4.055235958099365</v>
+        <v>4.31939697265625</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -825,13 +825,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>3.048853778839111</v>
+        <v>3.022782754898071</v>
       </c>
       <c r="C8">
-        <v>4.587782859802246</v>
+        <v>4.340693473815918</v>
       </c>
       <c r="D8">
-        <v>4.351851558685303</v>
+        <v>4.656092643737793</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -839,13 +839,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>3.591076850891113</v>
+        <v>3.134110689163208</v>
       </c>
       <c r="C9">
+        <v>4.935282230377197</v>
+      </c>
+      <c r="D9">
         <v>5.419802665710449</v>
-      </c>
-      <c r="D9">
-        <v>4.935282230377197</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -853,13 +853,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.3783765822934059</v>
+        <v>0.3362576465323701</v>
       </c>
       <c r="C10">
-        <v>0.6513902640802767</v>
+        <v>0.4691248291720175</v>
       </c>
       <c r="D10">
-        <v>0.464777201549406</v>
+        <v>0.6625254739078752</v>
       </c>
     </row>
   </sheetData>
@@ -891,13 +891,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -905,13 +905,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>9.941038115271207</v>
+        <v>10.47253696123759</v>
       </c>
       <c r="C3">
-        <v>2.047283013661703</v>
+        <v>1.838896236249379</v>
       </c>
       <c r="D3">
-        <v>1.789382703304291</v>
+        <v>2.052446071694537</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -919,13 +919,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2.705643653869629</v>
+        <v>3.634627103805542</v>
       </c>
       <c r="C4">
+        <v>1.184640765190124</v>
+      </c>
+      <c r="D4">
         <v>1.13015604019165</v>
-      </c>
-      <c r="D4">
-        <v>1.184640765190124</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -933,13 +933,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>5.016013050079346</v>
+        <v>5.895835304260254</v>
       </c>
       <c r="C5">
-        <v>1.37777144908905</v>
+        <v>1.372990489006042</v>
       </c>
       <c r="D5">
-        <v>1.345740175247192</v>
+        <v>1.376351714134216</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -947,13 +947,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>7.283787155151368</v>
+        <v>7.410653495788575</v>
       </c>
       <c r="C6">
-        <v>1.474422264099121</v>
+        <v>1.482974886894226</v>
       </c>
       <c r="D6">
-        <v>1.455798316001892</v>
+        <v>1.457598447799683</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -961,13 +961,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>9.58774471282959</v>
+        <v>9.967202758789062</v>
       </c>
       <c r="C7">
-        <v>1.894859409332275</v>
+        <v>1.778881192207336</v>
       </c>
       <c r="D7">
-        <v>1.749379181861877</v>
+        <v>1.95177960395813</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -975,13 +975,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>12.30160942077637</v>
+        <v>13.17424278259277</v>
       </c>
       <c r="C8">
-        <v>2.403053903579712</v>
+        <v>2.491442203521729</v>
       </c>
       <c r="D8">
-        <v>2.415016412734986</v>
+        <v>2.396150588989258</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -992,10 +992,10 @@
         <v>41.44600677490234</v>
       </c>
       <c r="C9">
+        <v>2.987525701522827</v>
+      </c>
+      <c r="D9">
         <v>8.712434768676758</v>
-      </c>
-      <c r="D9">
-        <v>2.977022647857666</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1003,13 +1003,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>7.88402565917241</v>
+        <v>7.917404446915478</v>
       </c>
       <c r="C10">
-        <v>1.270921224117336</v>
+        <v>0.5556232732747142</v>
       </c>
       <c r="D10">
-        <v>0.5281207881845644</v>
+        <v>1.319946288140812</v>
       </c>
     </row>
   </sheetData>
@@ -1041,13 +1041,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1055,13 +1055,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>27.69026022471988</v>
+        <v>29.74139061173617</v>
       </c>
       <c r="C3">
-        <v>52.10103276475277</v>
+        <v>31.44514721258177</v>
       </c>
       <c r="D3">
-        <v>32.44174126389608</v>
+        <v>53.79769009034388</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1086,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>22.54253034592023</v>
+        <v>4.302190949033983</v>
       </c>
       <c r="D5">
-        <v>5.380921703295703</v>
+        <v>25.08963559243722</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1097,13 +1097,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>3.454077500229369</v>
+        <v>10.77234751047749</v>
       </c>
       <c r="C6">
-        <v>42.98545853884843</v>
+        <v>22.60083146103553</v>
       </c>
       <c r="D6">
-        <v>22.62704597613869</v>
+        <v>44.9700903853249</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1111,13 +1111,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>22.91363639634352</v>
+        <v>25.37484524132774</v>
       </c>
       <c r="C7">
-        <v>62.47356700651054</v>
+        <v>33.04603280642584</v>
       </c>
       <c r="D7">
-        <v>33.92697911716034</v>
+        <v>63.54786629016852</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1125,13 +1125,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>64.20683960757768</v>
+        <v>65.66852567475588</v>
       </c>
       <c r="C8">
-        <v>81.37387567676392</v>
+        <v>52.04307947010567</v>
       </c>
       <c r="D8">
-        <v>53.98255574721872</v>
+        <v>88.74696435078951</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1142,10 +1142,10 @@
         <v>96.44061216012972</v>
       </c>
       <c r="C9">
+        <v>97.2112431035242</v>
+      </c>
+      <c r="D9">
         <v>99.31397532865311</v>
-      </c>
-      <c r="D9">
-        <v>97.2112431035242</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1153,13 +1153,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>32.45135998045774</v>
+        <v>32.72228581757692</v>
       </c>
       <c r="C10">
-        <v>30.82343899622545</v>
+        <v>25.95433692379542</v>
       </c>
       <c r="D10">
-        <v>26.24595468714428</v>
+        <v>31.32490043534074</v>
       </c>
     </row>
   </sheetData>
@@ -1191,13 +1191,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1205,13 +1205,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2912.559470559577</v>
+        <v>2878.354005928344</v>
       </c>
       <c r="C3">
-        <v>2693.473152674289</v>
+        <v>3558.731552158424</v>
       </c>
       <c r="D3">
-        <v>3629.664485450925</v>
+        <v>2686.566236784877</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1222,10 +1222,10 @@
         <v>1699.191621031189</v>
       </c>
       <c r="C4">
+        <v>2050.899523980702</v>
+      </c>
+      <c r="D4">
         <v>564.558266047401</v>
-      </c>
-      <c r="D4">
-        <v>2050.899523980702</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1233,13 +1233,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2327.747268323583</v>
+        <v>2324.54552783691</v>
       </c>
       <c r="C5">
-        <v>1442.559326439479</v>
+        <v>2700.568671115607</v>
       </c>
       <c r="D5">
-        <v>2767.894726772863</v>
+        <v>1216.611214804571</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1247,13 +1247,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>2661.403434060975</v>
+        <v>2676.390736058448</v>
       </c>
       <c r="C6">
-        <v>2469.977257450328</v>
+        <v>3247.506597134436</v>
       </c>
       <c r="D6">
-        <v>3387.823731052301</v>
+        <v>2298.16683989691</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1261,13 +1261,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>3104.159501235614</v>
+        <v>3094.973977058081</v>
       </c>
       <c r="C7">
-        <v>3026.756891763705</v>
+        <v>3575.331567536843</v>
       </c>
       <c r="D7">
-        <v>3693.711037864653</v>
+        <v>3063.660062374317</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1275,13 +1275,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>3414.196501370902</v>
+        <v>3397.556031819909</v>
       </c>
       <c r="C8">
-        <v>3748.389189248767</v>
+        <v>4407.404471742626</v>
       </c>
       <c r="D8">
-        <v>4559.758114741859</v>
+        <v>3802.094090262078</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1292,10 +1292,10 @@
         <v>4254.041732087841</v>
       </c>
       <c r="C9">
+        <v>5292.791501972236</v>
+      </c>
+      <c r="D9">
         <v>4998.218344350018</v>
-      </c>
-      <c r="D9">
-        <v>5292.791501972236</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1303,13 +1303,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>613.4353739416754</v>
+        <v>580.6926143491754</v>
       </c>
       <c r="C10">
-        <v>1241.272560918249</v>
+        <v>883.6413406231379</v>
       </c>
       <c r="D10">
-        <v>885.4251675705209</v>
+        <v>1298.040922879044</v>
       </c>
     </row>
   </sheetData>
@@ -1341,13 +1341,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1355,13 +1355,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>196.6407437617912</v>
+        <v>204.3206520861551</v>
       </c>
       <c r="C3">
-        <v>231.418868192423</v>
+        <v>150.5703126738819</v>
       </c>
       <c r="D3">
-        <v>150.0102252566006</v>
+        <v>235.8133362077423</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1372,10 +1372,10 @@
         <v>14.42303143865057</v>
       </c>
       <c r="C4">
+        <v>5.300443884677811</v>
+      </c>
+      <c r="D4">
         <v>14.9305146903186</v>
-      </c>
-      <c r="D4">
-        <v>5.300443884677811</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1383,13 +1383,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>57.93836322064575</v>
+        <v>54.08989094334206</v>
       </c>
       <c r="C5">
-        <v>75.65401940434603</v>
+        <v>28.72778933341944</v>
       </c>
       <c r="D5">
-        <v>25.83112492996816</v>
+        <v>76.470533822397</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1397,13 +1397,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>126.5235861390293</v>
+        <v>145.1669169551787</v>
       </c>
       <c r="C6">
-        <v>141.2605083054796</v>
+        <v>70.56515222881055</v>
       </c>
       <c r="D6">
-        <v>60.61469523781494</v>
+        <v>142.5534404758682</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1411,13 +1411,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>192.5896616708729</v>
+        <v>204.7631452087428</v>
       </c>
       <c r="C7">
-        <v>234.2205969814453</v>
+        <v>124.1400149432772</v>
       </c>
       <c r="D7">
-        <v>133.3739759316852</v>
+        <v>231.7103190795022</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1425,13 +1425,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>264.001579014173</v>
+        <v>273.7807128525519</v>
       </c>
       <c r="C8">
-        <v>422.3824782714158</v>
+        <v>287.6348979119137</v>
       </c>
       <c r="D8">
-        <v>281.4879010904925</v>
+        <v>426.8808383609494</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1442,10 +1442,10 @@
         <v>817.6376183437327</v>
       </c>
       <c r="C9">
+        <v>828.7710353408328</v>
+      </c>
+      <c r="D9">
         <v>718.3893110138268</v>
-      </c>
-      <c r="D9">
-        <v>828.7710353408328</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1453,13 +1453,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>177.3630512002676</v>
+        <v>181.4483163063424</v>
       </c>
       <c r="C10">
-        <v>186.1621982788022</v>
+        <v>155.7232616337632</v>
       </c>
       <c r="D10">
-        <v>160.9388510039059</v>
+        <v>191.3697507099603</v>
       </c>
     </row>
   </sheetData>
@@ -1491,13 +1491,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1505,13 +1505,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.3845561217581194</v>
+        <v>0.3866550383092775</v>
       </c>
       <c r="C3">
-        <v>0.3536152379291084</v>
+        <v>0.4472864135113093</v>
       </c>
       <c r="D3">
-        <v>0.4622469655433067</v>
+        <v>0.3582789347311429</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1522,10 +1522,10 @@
         <v>0.2121630973256148</v>
       </c>
       <c r="C4">
+        <v>0.1355024539306727</v>
+      </c>
+      <c r="D4">
         <v>0.1100567912109582</v>
-      </c>
-      <c r="D4">
-        <v>0.1355024539306727</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1533,13 +1533,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.3180098855950089</v>
+        <v>0.3167260745621543</v>
       </c>
       <c r="C5">
-        <v>0.22535023024847</v>
+        <v>0.3085541692847447</v>
       </c>
       <c r="D5">
-        <v>0.3124080922076079</v>
+        <v>0.2185886301300948</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1547,13 +1547,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.3516581474427347</v>
+        <v>0.3551601993477793</v>
       </c>
       <c r="C6">
-        <v>0.2962585514941607</v>
+        <v>0.3589575150295153</v>
       </c>
       <c r="D6">
-        <v>0.3747668462246131</v>
+        <v>0.3051646148357724</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1561,13 +1561,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.3953505717790513</v>
+        <v>0.4117321683535839</v>
       </c>
       <c r="C7">
-        <v>0.362254060199408</v>
+        <v>0.5007919027526342</v>
       </c>
       <c r="D7">
-        <v>0.5109395025478446</v>
+        <v>0.3663603337418683</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1575,13 +1575,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.4583418096261468</v>
+        <v>0.4598716430049254</v>
       </c>
       <c r="C8">
-        <v>0.4452453530991509</v>
+        <v>0.5734645929810435</v>
       </c>
       <c r="D8">
-        <v>0.5921142211172669</v>
+        <v>0.469068104695081</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1592,10 +1592,10 @@
         <v>0.548932601196442</v>
       </c>
       <c r="C9">
+        <v>0.8992113917225983</v>
+      </c>
+      <c r="D9">
         <v>0.8406517614921246</v>
-      </c>
-      <c r="D9">
-        <v>0.8992113917225983</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1603,13 +1603,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.08590055818766759</v>
+        <v>0.08822343532293589</v>
       </c>
       <c r="C10">
-        <v>0.1530335723557866</v>
+        <v>0.1699132037664839</v>
       </c>
       <c r="D10">
-        <v>0.1726575643000159</v>
+        <v>0.1583992560255449</v>
       </c>
     </row>
   </sheetData>
@@ -1641,13 +1641,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1655,13 +1655,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>45.34157467055572</v>
+        <v>40.95303344614138</v>
       </c>
       <c r="C3">
-        <v>12.94621212504202</v>
+        <v>19.44495511952644</v>
       </c>
       <c r="D3">
-        <v>16.82810771936668</v>
+        <v>13.2741757878547</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1683,13 +1683,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>3.749706401351791</v>
+        <v>3.526669435461962</v>
       </c>
       <c r="C5">
-        <v>0.3953376663448693</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.3371924110894484</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1697,13 +1697,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>20.73027642345721</v>
+        <v>14.20954798020294</v>
       </c>
       <c r="C6">
-        <v>4.369151742034225</v>
+        <v>0.6311618176987113</v>
       </c>
       <c r="D6">
-        <v>0.0003159999529123207</v>
+        <v>4.391412836917629</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1711,13 +1711,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>43.90926505616338</v>
+        <v>43.25944514960685</v>
       </c>
       <c r="C7">
-        <v>8.256679477100903</v>
+        <v>3.315850194193113</v>
       </c>
       <c r="D7">
-        <v>2.790578736202092</v>
+        <v>9.304808012499173</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1725,13 +1725,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>61.07033590869013</v>
+        <v>55.57174018705914</v>
       </c>
       <c r="C8">
-        <v>15.7290291290885</v>
+        <v>13.99384192357808</v>
       </c>
       <c r="D8">
-        <v>11.18600397589768</v>
+        <v>14.65182810475962</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1742,10 +1742,10 @@
         <v>232.3907180623382</v>
       </c>
       <c r="C9">
+        <v>216.5658049832511</v>
+      </c>
+      <c r="D9">
         <v>112.7467620480898</v>
-      </c>
-      <c r="D9">
-        <v>216.5658049832511</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1753,13 +1753,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>53.32864103023322</v>
+        <v>51.37516103902178</v>
       </c>
       <c r="C10">
-        <v>21.03298230750685</v>
+        <v>45.99478582225628</v>
       </c>
       <c r="D10">
-        <v>44.54115743894175</v>
+        <v>21.77671795559612</v>
       </c>
     </row>
   </sheetData>
@@ -1791,13 +1791,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1805,13 +1805,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>168.2137931034483</v>
+        <v>180.6740740740741</v>
       </c>
       <c r="C3">
-        <v>231.0088888888889</v>
+        <v>517.9910714285714</v>
       </c>
       <c r="D3">
-        <v>580.1500000000001</v>
+        <v>253.5463414634146</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1822,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-1.4210854715202E-14</v>
       </c>
       <c r="D4">
-        <v>-1.4210854715202E-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1861,13 +1861,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>33.60000000000003</v>
+        <v>73.79999999999998</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>61.10000000000001</v>
       </c>
       <c r="D7">
-        <v>95.43999999999993</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1875,13 +1875,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>201.42</v>
+        <v>210.34</v>
       </c>
       <c r="C8">
-        <v>370.6200000000001</v>
+        <v>391.2</v>
       </c>
       <c r="D8">
-        <v>865.5600000000009</v>
+        <v>393.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1892,10 +1892,10 @@
         <v>1781</v>
       </c>
       <c r="C9">
+        <v>5449.7</v>
+      </c>
+      <c r="D9">
         <v>2076</v>
-      </c>
-      <c r="D9">
-        <v>5449.7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1903,13 +1903,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>366.9555235059517</v>
+        <v>377.7256957437119</v>
       </c>
       <c r="C10">
-        <v>487.0523752973886</v>
+        <v>1173.428790460873</v>
       </c>
       <c r="D10">
-        <v>1228.308583386279</v>
+        <v>505.0592757773888</v>
       </c>
     </row>
   </sheetData>
@@ -1941,13 +1941,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1955,13 +1955,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2381420733.344828</v>
+        <v>2357895165.740741</v>
       </c>
       <c r="C3">
-        <v>992.7777777777778</v>
+        <v>1648110943.785714</v>
       </c>
       <c r="D3">
-        <v>1737922727.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1972,10 +1972,10 @@
         <v>116506</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>9636</v>
       </c>
       <c r="D4">
-        <v>188337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1983,13 +1983,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1004759.2</v>
+        <v>785762.4000000001</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>844455</v>
       </c>
       <c r="D5">
-        <v>1598689.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1997,13 +1997,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>23668578.40000001</v>
+        <v>12255922.40000001</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>9176963</v>
       </c>
       <c r="D6">
-        <v>10861500.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2011,13 +2011,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>850791154.4000006</v>
+        <v>203251189.6</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>52298837</v>
       </c>
       <c r="D7">
-        <v>53254759.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2025,13 +2025,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>3426100305.800001</v>
+        <v>3124775160.400001</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>846829135</v>
       </c>
       <c r="D8">
-        <v>379182807.0000017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2042,10 +2042,10 @@
         <v>36555306437</v>
       </c>
       <c r="C9">
-        <v>14892</v>
+        <v>26252152053</v>
       </c>
       <c r="D9">
-        <v>26252152053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2053,13 +2053,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>6768574354.064594</v>
+        <v>7011411074.092071</v>
       </c>
       <c r="C10">
-        <v>3280.816936020169</v>
+        <v>4825812910.616153</v>
       </c>
       <c r="D10">
-        <v>5076922072.899202</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2091,13 +2091,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2105,13 +2105,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>7.907744219794103</v>
+        <v>7.967873287431799</v>
       </c>
       <c r="C3">
-        <v>19.67897329839553</v>
+        <v>20.50810409833625</v>
       </c>
       <c r="D3">
-        <v>21.26163601515712</v>
+        <v>19.86277495834623</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2122,10 +2122,10 @@
         <v>1.724420016056513</v>
       </c>
       <c r="C4">
+        <v>0.450184720126856</v>
+      </c>
+      <c r="D4">
         <v>5.642093956947008</v>
-      </c>
-      <c r="D4">
-        <v>0.450184720126856</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2133,13 +2133,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>6.126651830652736</v>
+        <v>6.277945137745382</v>
       </c>
       <c r="C5">
-        <v>17.52058514317746</v>
+        <v>16.66393013376756</v>
       </c>
       <c r="D5">
-        <v>17.71263952584824</v>
+        <v>17.67974540666165</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2147,13 +2147,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>7.878338242394955</v>
+        <v>7.928956240049774</v>
       </c>
       <c r="C6">
-        <v>18.53981970799085</v>
+        <v>18.54324224448669</v>
       </c>
       <c r="D6">
-        <v>18.61699282846356</v>
+        <v>18.57619125254626</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2161,13 +2161,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>8.789006077106468</v>
+        <v>8.77851288280849</v>
       </c>
       <c r="C7">
-        <v>19.66624877449984</v>
+        <v>24.49830489744255</v>
       </c>
       <c r="D7">
-        <v>25.72772134419014</v>
+        <v>19.71999959952649</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2175,13 +2175,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>9.796939219093939</v>
+        <v>9.682380557965155</v>
       </c>
       <c r="C8">
-        <v>24.20851214740748</v>
+        <v>27.14026238639127</v>
       </c>
       <c r="D8">
-        <v>27.2756196574454</v>
+        <v>24.5012372334798</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2192,10 +2192,10 @@
         <v>12.10883661560393</v>
       </c>
       <c r="C9">
+        <v>27.89299968777141</v>
+      </c>
+      <c r="D9">
         <v>29.28690470375198</v>
-      </c>
-      <c r="D9">
-        <v>27.89299968777141</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2203,13 +2203,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>2.327485649560004</v>
+        <v>2.143135268587106</v>
       </c>
       <c r="C10">
-        <v>5.138152354615851</v>
+        <v>6.606685843219331</v>
       </c>
       <c r="D10">
-        <v>6.281770348590395</v>
+        <v>5.30897703418379</v>
       </c>
     </row>
   </sheetData>
@@ -2241,13 +2241,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2255,13 +2255,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3640.102021278979</v>
+        <v>3619.541603245395</v>
       </c>
       <c r="C3">
-        <v>700.4301177605165</v>
+        <v>869.5102515528166</v>
       </c>
       <c r="D3">
-        <v>731.5012728032158</v>
+        <v>664.3214678510014</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2283,13 +2283,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2934.288925185277</v>
+        <v>2990.625991164083</v>
       </c>
       <c r="C5">
-        <v>3.62108681140802</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3.608273267745972</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2297,13 +2297,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>3319.587415845648</v>
+        <v>3320.955510901119</v>
       </c>
       <c r="C6">
-        <v>99.48763361670464</v>
+        <v>76.46863056051269</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>74.03970197192541</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2311,13 +2311,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>3657.386161650131</v>
+        <v>3638.987714077849</v>
       </c>
       <c r="C7">
-        <v>435.1237179808031</v>
+        <v>690.8864705739949</v>
       </c>
       <c r="D7">
-        <v>582.9685253572464</v>
+        <v>273.3698612559915</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2325,13 +2325,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>4316.191361847604</v>
+        <v>4242.908110859176</v>
       </c>
       <c r="C8">
-        <v>1217.021696889317</v>
+        <v>1369.932833866545</v>
       </c>
       <c r="D8">
-        <v>1096.968861274543</v>
+        <v>1202.559303805128</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2342,10 +2342,10 @@
         <v>5928.476668637909</v>
       </c>
       <c r="C9">
+        <v>6332.282012523625</v>
+      </c>
+      <c r="D9">
         <v>4493.451090605361</v>
-      </c>
-      <c r="D9">
-        <v>6332.282012523625</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2353,13 +2353,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>856.6675077552084</v>
+        <v>793.6975021397608</v>
       </c>
       <c r="C10">
-        <v>1019.913529019794</v>
+        <v>1304.882543926083</v>
       </c>
       <c r="D10">
-        <v>1192.054715997837</v>
+        <v>1058.872479711859</v>
       </c>
     </row>
   </sheetData>
